--- a/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T18:01:33+00:00</t>
+    <t>2024-02-29T20:20:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-29T20:20:18+00:00</t>
+    <t>2024-03-01T15:50:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-01T15:50:04+00:00</t>
+    <t>2024-03-04T15:00:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-04T15:00:39+00:00</t>
+    <t>2024-03-05T20:46:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.7</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-05T20:46:11+00:00</t>
+    <t>2024-03-06T13:55:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-06T13:55:04+00:00</t>
+    <t>2024-03-06T14:38:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-06T14:38:01+00:00</t>
+    <t>2024-03-18T16:21:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T16:21:14+00:00</t>
+    <t>2024-03-18T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T17:14:02+00:00</t>
+    <t>2024-03-19T16:07:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T16:07:43+00:00</t>
+    <t>2024-03-19T17:49:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-19T17:49:48+00:00</t>
+    <t>2024-04-04T12:35:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-04T12:35:15+00:00</t>
+    <t>2024-04-29T22:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-29T22:09:51+00:00</t>
+    <t>2024-04-30T11:40:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6</t>
+    <t>0.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T11:40:38+00:00</t>
+    <t>2024-05-30T19:35:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
@@ -9,6 +9,9 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$34</definedName>
+  </definedNames>
 </workbook>
 </file>
 
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-30T19:35:25+00:00</t>
+    <t>2024-05-31T20:01:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -608,7 +611,7 @@
 Focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/PatientLE)
 </t>
   </si>
   <si>
@@ -636,7 +639,7 @@
     <t>QuestionnaireResponse.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/EncounterIniciarLE)
 </t>
   </si>
   <si>
@@ -701,7 +704,7 @@
 ServicePractitionerDepartmentCompanyPerformer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|Practitioner|PractitionerRole|Patient|RelatedPerson|Organization)
+    <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/PrestadorProfesionalLE)
 </t>
   </si>
   <si>
@@ -1079,6 +1082,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1274,7 +1292,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="83.89453125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="91.60546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1423,7 +1441,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
@@ -1534,7 +1552,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>87</v>
       </c>
@@ -1645,7 +1663,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>95</v>
       </c>
@@ -1754,7 +1772,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>101</v>
       </c>
@@ -1865,7 +1883,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>107</v>
       </c>
@@ -1976,7 +1994,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>116</v>
       </c>
@@ -2087,7 +2105,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>124</v>
       </c>
@@ -2198,7 +2216,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>132</v>
       </c>
@@ -2309,7 +2327,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>140</v>
       </c>
@@ -2422,7 +2440,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>145</v>
       </c>
@@ -2533,7 +2551,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>153</v>
       </c>
@@ -2644,7 +2662,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
         <v>161</v>
       </c>
@@ -2755,7 +2773,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>168</v>
       </c>
@@ -2868,7 +2886,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
         <v>177</v>
       </c>
@@ -2981,7 +2999,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>188</v>
       </c>
@@ -3094,7 +3112,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
         <v>198</v>
       </c>
@@ -3207,7 +3225,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
         <v>207</v>
       </c>
@@ -3320,7 +3338,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
         <v>217</v>
       </c>
@@ -3433,7 +3451,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>227</v>
       </c>
@@ -3546,7 +3564,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
         <v>235</v>
       </c>
@@ -3559,13 +3577,13 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>79</v>
@@ -3657,7 +3675,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
         <v>242</v>
       </c>
@@ -3766,7 +3784,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
         <v>248</v>
       </c>
@@ -3877,7 +3895,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
         <v>251</v>
       </c>
@@ -3990,7 +4008,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
         <v>256</v>
       </c>
@@ -4009,7 +4027,7 @@
         <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>79</v>
@@ -4101,7 +4119,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
         <v>262</v>
       </c>
@@ -4214,7 +4232,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
         <v>268</v>
       </c>
@@ -4325,7 +4343,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
         <v>274</v>
       </c>
@@ -4436,7 +4454,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
         <v>279</v>
       </c>
@@ -4545,7 +4563,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
         <v>280</v>
       </c>
@@ -4656,7 +4674,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
         <v>281</v>
       </c>
@@ -4769,7 +4787,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
         <v>282</v>
       </c>
@@ -4882,7 +4900,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
         <v>292</v>
       </c>
@@ -4993,7 +5011,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
         <v>296</v>
       </c>
@@ -5105,6 +5123,24 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AM34">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI33">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:01:16+00:00</t>
+    <t>2024-05-31T20:30:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.1</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:30:32+00:00</t>
+    <t>2024-05-31T20:52:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T20:52:22+00:00</t>
+    <t>2024-06-03T14:23:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:23:07+00:00</t>
+    <t>2024-06-03T14:39:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:39:49+00:00</t>
+    <t>2024-06-04T14:45:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-04T14:45:33+00:00</t>
+    <t>2024-06-14T16:20:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -704,7 +704,7 @@
 ServicePractitionerDepartmentCompanyPerformer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/PrestadorProfesionalLE)
+    <t xml:space="preserve">Reference(https://interoperabilidad.minsal.cl/fhir/ig/tei/StructureDefinition/PractitionerProfesionalLE)
 </t>
   </si>
   <si>
@@ -1292,7 +1292,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="91.60546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="93.39453125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T16:20:30+00:00</t>
+    <t>2024-06-14T18:56:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-14T18:56:59+00:00</t>
+    <t>2024-06-18T19:34:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T19:34:09+00:00</t>
+    <t>2024-06-18T20:03:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-18T20:03:27+00:00</t>
+    <t>2024-06-19T19:58:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T19:58:24+00:00</t>
+    <t>2024-06-19T20:13:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T20:13:08+00:00</t>
+    <t>2024-06-21T14:59:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T14:59:52+00:00</t>
+    <t>2024-06-21T15:26:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T15:26:57+00:00</t>
+    <t>2024-06-21T18:16:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T18:16:33+00:00</t>
+    <t>2024-06-21T21:35:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T21:35:59+00:00</t>
+    <t>2024-06-24T21:09:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-24T21:09:26+00:00</t>
+    <t>2024-06-27T13:53:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
+++ b/refs/heads/master/StructureDefinition-QuestionnaireResponseIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T13:53:42+00:00</t>
+    <t>2024-06-28T19:11:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
